--- a/Thesis/VAC Thesis 1.0/Chapter-4/tables/AcceleratedCorrosion_db075.xlsx
+++ b/Thesis/VAC Thesis 1.0/Chapter-4/tables/AcceleratedCorrosion_db075.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condition-Dependent-PBEE\Thesis\VAC Thesis 1.0\Chapter-4\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC2F14F-6C03-430C-A485-05A129928FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,23 +157,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:F14" totalsRowShown="0">
-  <autoFilter ref="A9:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:F14" totalsRowShown="0">
+  <autoFilter ref="A9:F14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Corrosion Level"/>
-    <tableColumn id="2" name="mloss">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Corrosion Level"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mloss">
       <calculatedColumnFormula>0.25*PI()*$B$5^2*$B$6*A10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current (A)">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Current (A)">
       <calculatedColumnFormula>+C9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Current Density (μa/cm^2)">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Current Density (μa/cm^2)">
       <calculatedColumnFormula>+C10*1000000/$B$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="t(h)">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="t(h)">
       <calculatedColumnFormula>+(B10*$B$4*$B$3)/(C10*$B$2*60*60)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="t(days)">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="t(days)">
       <calculatedColumnFormula>+E10/24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -436,22 +443,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.41796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -463,7 +470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -474,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -485,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -493,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -505,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -516,7 +523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -528,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -548,7 +555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>0.05</v>
       </c>
@@ -557,22 +564,22 @@
         <v>1.1187151061949441</v>
       </c>
       <c r="C10">
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D10">
         <f>+C10*1000000/$B$7</f>
-        <v>140.96608867071322</v>
+        <v>56.386435468285285</v>
       </c>
       <c r="E10">
         <f>+(B10*$B$4*$B$3)/(C10*$B$2*60*60)</f>
-        <v>71.644249980896845</v>
+        <v>179.11062495224209</v>
       </c>
       <c r="F10">
         <f>+E10/24</f>
-        <v>2.9851770825373687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.4629427063434202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -582,22 +589,22 @@
       </c>
       <c r="C11">
         <f>+C10</f>
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D14" si="1">+C11*1000000/$B$7</f>
-        <v>140.96608867071322</v>
+        <v>56.386435468285285</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E14" si="2">+(B11*$B$4*$B$3)/(C11*$B$2*60*60)</f>
-        <v>143.28849996179369</v>
+        <v>358.22124990448418</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F14" si="3">+E11/24</f>
-        <v>5.9703541650747374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.92588541268684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0.15</v>
       </c>
@@ -607,22 +614,22 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C14" si="4">+C11</f>
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>140.96608867071322</v>
+        <v>56.386435468285285</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>214.93274994269055</v>
+        <v>537.33187485672636</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>8.9555312476121056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.388828119030265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -632,22 +639,22 @@
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>140.96608867071322</v>
+        <v>56.386435468285285</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>286.57699992358738</v>
+        <v>716.44249980896836</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>11.940708330149475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29.851770825373681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>0.25</v>
       </c>
@@ -657,19 +664,19 @@
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>140.96608867071322</v>
+        <v>56.386435468285285</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>358.22124990448424</v>
+        <v>895.5531247612106</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>14.925885412686844</v>
+        <v>37.314713531717111</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis/VAC Thesis 1.0/Chapter-4/tables/AcceleratedCorrosion_db075.xlsx
+++ b/Thesis/VAC Thesis 1.0/Chapter-4/tables/AcceleratedCorrosion_db075.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condition-Dependent-PBEE\Thesis\VAC Thesis 1.0\Chapter-4\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC2F14F-6C03-430C-A485-05A129928FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A35825-910F-404F-9BCB-EB16B8FA92F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -564,19 +564,19 @@
         <v>1.1187151061949441</v>
       </c>
       <c r="C10">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10">
         <f>+C10*1000000/$B$7</f>
-        <v>56.386435468285285</v>
+        <v>46.988696223571068</v>
       </c>
       <c r="E10">
         <f>+(B10*$B$4*$B$3)/(C10*$B$2*60*60)</f>
-        <v>179.11062495224209</v>
+        <v>214.93274994269055</v>
       </c>
       <c r="F10">
         <f>+E10/24</f>
-        <v>7.4629427063434202</v>
+        <v>8.9555312476121056</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -589,19 +589,19 @@
       </c>
       <c r="C11">
         <f>+C10</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D14" si="1">+C11*1000000/$B$7</f>
-        <v>56.386435468285285</v>
+        <v>46.988696223571068</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E14" si="2">+(B11*$B$4*$B$3)/(C11*$B$2*60*60)</f>
-        <v>358.22124990448418</v>
+        <v>429.8654998853811</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F14" si="3">+E11/24</f>
-        <v>14.92588541268684</v>
+        <v>17.911062495224211</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -614,19 +614,19 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C14" si="4">+C11</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>56.386435468285285</v>
+        <v>46.988696223571068</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>537.33187485672636</v>
+        <v>644.79824982807168</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>22.388828119030265</v>
+        <v>26.866593742836319</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -639,19 +639,19 @@
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>56.386435468285285</v>
+        <v>46.988696223571068</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>716.44249980896836</v>
+        <v>859.7309997707622</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>29.851770825373681</v>
+        <v>35.822124990448422</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -664,19 +664,19 @@
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>56.386435468285285</v>
+        <v>46.988696223571068</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>895.5531247612106</v>
+        <v>1074.6637497134527</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>37.314713531717111</v>
+        <v>44.77765623806053</v>
       </c>
     </row>
   </sheetData>
